--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Cd248</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.4917684968153</v>
+        <v>53.49793866666666</v>
       </c>
       <c r="H2">
-        <v>53.4917684968153</v>
+        <v>160.493816</v>
       </c>
       <c r="I2">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472853</v>
       </c>
       <c r="J2">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.073966866414</v>
+        <v>2.828008</v>
       </c>
       <c r="N2">
-        <v>2.073966866414</v>
+        <v>8.484024</v>
       </c>
       <c r="O2">
-        <v>0.03269287077653899</v>
+        <v>0.04369876216807366</v>
       </c>
       <c r="P2">
-        <v>0.03269287077653899</v>
+        <v>0.04369876216807365</v>
       </c>
       <c r="Q2">
-        <v>110.9401554882832</v>
+        <v>151.2925985328426</v>
       </c>
       <c r="R2">
-        <v>110.9401554882832</v>
+        <v>1361.633386795584</v>
       </c>
       <c r="S2">
-        <v>0.03186876661715014</v>
+        <v>0.04248698687782339</v>
       </c>
       <c r="T2">
-        <v>0.03186876661715014</v>
+        <v>0.04248698687782337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.4917684968153</v>
+        <v>53.49793866666666</v>
       </c>
       <c r="H3">
-        <v>53.4917684968153</v>
+        <v>160.493816</v>
       </c>
       <c r="I3">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472853</v>
       </c>
       <c r="J3">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>58.4728297457302</v>
+        <v>58.57646433333333</v>
       </c>
       <c r="N3">
-        <v>58.4728297457302</v>
+        <v>175.729393</v>
       </c>
       <c r="O3">
-        <v>0.9217334653571678</v>
+        <v>0.9051314506709254</v>
       </c>
       <c r="P3">
-        <v>0.9217334653571678</v>
+        <v>0.9051314506709253</v>
       </c>
       <c r="Q3">
-        <v>3127.815072112295</v>
+        <v>3133.720096214854</v>
       </c>
       <c r="R3">
-        <v>3127.815072112295</v>
+        <v>28203.48086593368</v>
       </c>
       <c r="S3">
-        <v>0.8984989079565419</v>
+        <v>0.8800319770946979</v>
       </c>
       <c r="T3">
-        <v>0.8984989079565419</v>
+        <v>0.8800319770946977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.4917684968153</v>
+        <v>53.49793866666666</v>
       </c>
       <c r="H4">
-        <v>53.4917684968153</v>
+        <v>160.493816</v>
       </c>
       <c r="I4">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472853</v>
       </c>
       <c r="J4">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102472991177506</v>
+        <v>0.106015</v>
       </c>
       <c r="N4">
-        <v>0.102472991177506</v>
+        <v>0.318045</v>
       </c>
       <c r="O4">
-        <v>0.001615327762899216</v>
+        <v>0.001638158120927639</v>
       </c>
       <c r="P4">
-        <v>0.001615327762899216</v>
+        <v>0.001638158120927638</v>
       </c>
       <c r="Q4">
-        <v>5.481461521243347</v>
+        <v>5.671583967746667</v>
       </c>
       <c r="R4">
-        <v>5.481461521243347</v>
+        <v>51.04425570972</v>
       </c>
       <c r="S4">
-        <v>0.001574609456535713</v>
+        <v>0.001592731673266994</v>
       </c>
       <c r="T4">
-        <v>0.001574609456535713</v>
+        <v>0.001592731673266994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.4917684968153</v>
+        <v>53.49793866666666</v>
       </c>
       <c r="H5">
-        <v>53.4917684968153</v>
+        <v>160.493816</v>
       </c>
       <c r="I5">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472853</v>
       </c>
       <c r="J5">
-        <v>0.974792542232778</v>
+        <v>0.9722698028472851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.78862426014155</v>
+        <v>0.08763466666666665</v>
       </c>
       <c r="N5">
-        <v>2.78862426014155</v>
+        <v>0.262904</v>
       </c>
       <c r="O5">
-        <v>0.04395833610339395</v>
+        <v>0.001354142723904981</v>
       </c>
       <c r="P5">
-        <v>0.04395833610339395</v>
+        <v>0.001354142723904981</v>
       </c>
       <c r="Q5">
-        <v>149.1684433480946</v>
+        <v>4.68827402240711</v>
       </c>
       <c r="R5">
-        <v>149.1684433480946</v>
+        <v>42.19446620166399</v>
       </c>
       <c r="S5">
-        <v>0.04285025820255029</v>
+        <v>0.001316592079198182</v>
       </c>
       <c r="T5">
-        <v>0.04285025820255029</v>
+        <v>0.001316592079198182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.928312450072158</v>
+        <v>53.49793866666666</v>
       </c>
       <c r="H6">
-        <v>0.928312450072158</v>
+        <v>160.493816</v>
       </c>
       <c r="I6">
-        <v>0.01691684680879551</v>
+        <v>0.9722698028472853</v>
       </c>
       <c r="J6">
-        <v>0.01691684680879551</v>
+        <v>0.9722698028472851</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.073966866414</v>
+        <v>3.117853</v>
       </c>
       <c r="N6">
-        <v>2.073966866414</v>
+        <v>9.353559000000001</v>
       </c>
       <c r="O6">
-        <v>0.03269287077653899</v>
+        <v>0.04817748631616847</v>
       </c>
       <c r="P6">
-        <v>0.03269287077653899</v>
+        <v>0.04817748631616846</v>
       </c>
       <c r="Q6">
-        <v>1.925289263129256</v>
+        <v>166.7987085656827</v>
       </c>
       <c r="R6">
-        <v>1.925289263129256</v>
+        <v>1501.188377091144</v>
       </c>
       <c r="S6">
-        <v>0.0005530602866664575</v>
+        <v>0.0468415151222989</v>
       </c>
       <c r="T6">
-        <v>0.0005530602866664575</v>
+        <v>0.04684151512229889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.928312450072158</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H7">
-        <v>0.928312450072158</v>
+        <v>2.790231</v>
       </c>
       <c r="I7">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="J7">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.4728297457302</v>
+        <v>2.828008</v>
       </c>
       <c r="N7">
-        <v>58.4728297457302</v>
+        <v>8.484024</v>
       </c>
       <c r="O7">
-        <v>0.9217334653571678</v>
+        <v>0.04369876216807366</v>
       </c>
       <c r="P7">
-        <v>0.9217334653571678</v>
+        <v>0.04369876216807365</v>
       </c>
       <c r="Q7">
-        <v>54.28105584391096</v>
+        <v>2.630265196616</v>
       </c>
       <c r="R7">
-        <v>54.28105584391096</v>
+        <v>23.672386769544</v>
       </c>
       <c r="S7">
-        <v>0.01559282383198743</v>
+        <v>0.0007386484466360749</v>
       </c>
       <c r="T7">
-        <v>0.01559282383198743</v>
+        <v>0.0007386484466360746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.928312450072158</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H8">
-        <v>0.928312450072158</v>
+        <v>2.790231</v>
       </c>
       <c r="I8">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="J8">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.102472991177506</v>
+        <v>58.57646433333333</v>
       </c>
       <c r="N8">
-        <v>0.102472991177506</v>
+        <v>175.729393</v>
       </c>
       <c r="O8">
-        <v>0.001615327762899216</v>
+        <v>0.9051314506709254</v>
       </c>
       <c r="P8">
-        <v>0.001615327762899216</v>
+        <v>0.9051314506709253</v>
       </c>
       <c r="Q8">
-        <v>0.09512695350621322</v>
+        <v>54.48062221775366</v>
       </c>
       <c r="R8">
-        <v>0.09512695350621322</v>
+        <v>490.3255999597829</v>
       </c>
       <c r="S8">
-        <v>2.732625231096038E-05</v>
+        <v>0.01529960820098462</v>
       </c>
       <c r="T8">
-        <v>2.732625231096038E-05</v>
+        <v>0.01529960820098462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.928312450072158</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H9">
-        <v>0.928312450072158</v>
+        <v>2.790231</v>
       </c>
       <c r="I9">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="J9">
-        <v>0.01691684680879551</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.78862426014155</v>
+        <v>0.106015</v>
       </c>
       <c r="N9">
-        <v>2.78862426014155</v>
+        <v>0.318045</v>
       </c>
       <c r="O9">
-        <v>0.04395833610339395</v>
+        <v>0.001638158120927639</v>
       </c>
       <c r="P9">
-        <v>0.04395833610339395</v>
+        <v>0.001638158120927638</v>
       </c>
       <c r="Q9">
-        <v>2.588714619262661</v>
+        <v>0.098602113155</v>
       </c>
       <c r="R9">
-        <v>2.588714619262661</v>
+        <v>0.887419018395</v>
       </c>
       <c r="S9">
-        <v>0.0007436364378306602</v>
+        <v>2.769009672890723E-05</v>
       </c>
       <c r="T9">
-        <v>0.0007436364378306602</v>
+        <v>2.769009672890723E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4549475122876</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H10">
-        <v>0.4549475122876</v>
+        <v>2.790231</v>
       </c>
       <c r="I10">
-        <v>0.00829061095842645</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="J10">
-        <v>0.00829061095842645</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.073966866414</v>
+        <v>0.08763466666666665</v>
       </c>
       <c r="N10">
-        <v>2.073966866414</v>
+        <v>0.262904</v>
       </c>
       <c r="O10">
-        <v>0.03269287077653899</v>
+        <v>0.001354142723904981</v>
       </c>
       <c r="P10">
-        <v>0.03269287077653899</v>
+        <v>0.001354142723904981</v>
       </c>
       <c r="Q10">
-        <v>0.9435460664419586</v>
+        <v>0.08150698786933332</v>
       </c>
       <c r="R10">
-        <v>0.9435460664419586</v>
+        <v>0.7335628908239999</v>
       </c>
       <c r="S10">
-        <v>0.000271043872722394</v>
+        <v>2.288933072494969E-05</v>
       </c>
       <c r="T10">
-        <v>0.000271043872722394</v>
+        <v>2.288933072494969E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4549475122876</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H11">
-        <v>0.4549475122876</v>
+        <v>2.790231</v>
       </c>
       <c r="I11">
-        <v>0.00829061095842645</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="J11">
-        <v>0.00829061095842645</v>
+        <v>0.01690318924355555</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.4728297457302</v>
+        <v>3.117853</v>
       </c>
       <c r="N11">
-        <v>58.4728297457302</v>
+        <v>9.353559000000001</v>
       </c>
       <c r="O11">
-        <v>0.9217334653571678</v>
+        <v>0.04817748631616847</v>
       </c>
       <c r="P11">
-        <v>0.9217334653571678</v>
+        <v>0.04817748631616846</v>
       </c>
       <c r="Q11">
-        <v>26.60206842923633</v>
+        <v>2.899843364681</v>
       </c>
       <c r="R11">
-        <v>26.60206842923633</v>
+        <v>26.098590282129</v>
       </c>
       <c r="S11">
-        <v>0.007641733568638522</v>
+        <v>0.0008143531684810036</v>
       </c>
       <c r="T11">
-        <v>0.007641733568638522</v>
+        <v>0.0008143531684810035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4549475122876</v>
+        <v>0.08127666666666666</v>
       </c>
       <c r="H12">
-        <v>0.4549475122876</v>
+        <v>0.24383</v>
       </c>
       <c r="I12">
-        <v>0.00829061095842645</v>
+        <v>0.001477119504892659</v>
       </c>
       <c r="J12">
-        <v>0.00829061095842645</v>
+        <v>0.001477119504892659</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.102472991177506</v>
+        <v>2.828008</v>
       </c>
       <c r="N12">
-        <v>0.102472991177506</v>
+        <v>8.484024</v>
       </c>
       <c r="O12">
-        <v>0.001615327762899216</v>
+        <v>0.04369876216807366</v>
       </c>
       <c r="P12">
-        <v>0.001615327762899216</v>
+        <v>0.04369876216807365</v>
       </c>
       <c r="Q12">
-        <v>0.04661983241287553</v>
+        <v>0.2298510635466667</v>
       </c>
       <c r="R12">
-        <v>0.04661983241287553</v>
+        <v>2.06865957192</v>
       </c>
       <c r="S12">
-        <v>1.339205405254272E-05</v>
+        <v>6.454829393812705E-05</v>
       </c>
       <c r="T12">
-        <v>1.339205405254272E-05</v>
+        <v>6.454829393812702E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08127666666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.24383</v>
+      </c>
+      <c r="I13">
+        <v>0.001477119504892659</v>
+      </c>
+      <c r="J13">
+        <v>0.001477119504892659</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>58.57646433333333</v>
+      </c>
+      <c r="N13">
+        <v>175.729393</v>
+      </c>
+      <c r="O13">
+        <v>0.9051314506709254</v>
+      </c>
+      <c r="P13">
+        <v>0.9051314506709253</v>
+      </c>
+      <c r="Q13">
+        <v>4.760899766132222</v>
+      </c>
+      <c r="R13">
+        <v>42.84809789518999</v>
+      </c>
+      <c r="S13">
+        <v>0.001336987320277812</v>
+      </c>
+      <c r="T13">
+        <v>0.001336987320277812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.08127666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.24383</v>
+      </c>
+      <c r="I14">
+        <v>0.001477119504892659</v>
+      </c>
+      <c r="J14">
+        <v>0.001477119504892659</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.106015</v>
+      </c>
+      <c r="N14">
+        <v>0.318045</v>
+      </c>
+      <c r="O14">
+        <v>0.001638158120927639</v>
+      </c>
+      <c r="P14">
+        <v>0.001638158120927638</v>
+      </c>
+      <c r="Q14">
+        <v>0.008616545816666668</v>
+      </c>
+      <c r="R14">
+        <v>0.07754891235</v>
+      </c>
+      <c r="S14">
+        <v>2.419755312520523E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.419755312520522E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.08127666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.24383</v>
+      </c>
+      <c r="I15">
+        <v>0.001477119504892659</v>
+      </c>
+      <c r="J15">
+        <v>0.001477119504892659</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.08763466666666665</v>
+      </c>
+      <c r="N15">
+        <v>0.262904</v>
+      </c>
+      <c r="O15">
+        <v>0.001354142723904981</v>
+      </c>
+      <c r="P15">
+        <v>0.001354142723904981</v>
+      </c>
+      <c r="Q15">
+        <v>0.007122653591111109</v>
+      </c>
+      <c r="R15">
+        <v>0.06410388231999999</v>
+      </c>
+      <c r="S15">
+        <v>2.000230629888523E-06</v>
+      </c>
+      <c r="T15">
+        <v>2.000230629888523E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08127666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.24383</v>
+      </c>
+      <c r="I16">
+        <v>0.001477119504892659</v>
+      </c>
+      <c r="J16">
+        <v>0.001477119504892659</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.117853</v>
+      </c>
+      <c r="N16">
+        <v>9.353559000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.04817748631616847</v>
+      </c>
+      <c r="P16">
+        <v>0.04817748631616846</v>
+      </c>
+      <c r="Q16">
+        <v>0.2534086989966667</v>
+      </c>
+      <c r="R16">
+        <v>2.28067829097</v>
+      </c>
+      <c r="S16">
+        <v>7.116390473431165E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.116390473431163E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03402066666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.102062</v>
+      </c>
+      <c r="I17">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="J17">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.828008</v>
+      </c>
+      <c r="N17">
+        <v>8.484024</v>
+      </c>
+      <c r="O17">
+        <v>0.04369876216807366</v>
+      </c>
+      <c r="P17">
+        <v>0.04369876216807365</v>
+      </c>
+      <c r="Q17">
+        <v>0.09621071749866666</v>
+      </c>
+      <c r="R17">
+        <v>0.8658964574879999</v>
+      </c>
+      <c r="S17">
+        <v>2.701852920441751E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.701852920441751E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03402066666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.102062</v>
+      </c>
+      <c r="I18">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="J18">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>58.57646433333333</v>
+      </c>
+      <c r="N18">
+        <v>175.729393</v>
+      </c>
+      <c r="O18">
+        <v>0.9051314506709254</v>
+      </c>
+      <c r="P18">
+        <v>0.9051314506709253</v>
+      </c>
+      <c r="Q18">
+        <v>1.992810367596222</v>
+      </c>
+      <c r="R18">
+        <v>17.935293308366</v>
+      </c>
+      <c r="S18">
+        <v>0.0005596341708657427</v>
+      </c>
+      <c r="T18">
+        <v>0.0005596341708657426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.4549475122876</v>
-      </c>
-      <c r="H13">
-        <v>0.4549475122876</v>
-      </c>
-      <c r="I13">
-        <v>0.00829061095842645</v>
-      </c>
-      <c r="J13">
-        <v>0.00829061095842645</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.78862426014155</v>
-      </c>
-      <c r="N13">
-        <v>2.78862426014155</v>
-      </c>
-      <c r="O13">
-        <v>0.04395833610339395</v>
-      </c>
-      <c r="P13">
-        <v>0.04395833610339395</v>
-      </c>
-      <c r="Q13">
-        <v>1.268677669856247</v>
-      </c>
-      <c r="R13">
-        <v>1.268677669856247</v>
-      </c>
-      <c r="S13">
-        <v>0.0003644414630129909</v>
-      </c>
-      <c r="T13">
-        <v>0.0003644414630129909</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03402066666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.102062</v>
+      </c>
+      <c r="I19">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="J19">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.106015</v>
+      </c>
+      <c r="N19">
+        <v>0.318045</v>
+      </c>
+      <c r="O19">
+        <v>0.001638158120927639</v>
+      </c>
+      <c r="P19">
+        <v>0.001638158120927638</v>
+      </c>
+      <c r="Q19">
+        <v>0.003606700976666667</v>
+      </c>
+      <c r="R19">
+        <v>0.03246030879</v>
+      </c>
+      <c r="S19">
+        <v>1.012857592201409E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.012857592201409E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.03402066666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.102062</v>
+      </c>
+      <c r="I20">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="J20">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.08763466666666665</v>
+      </c>
+      <c r="N20">
+        <v>0.262904</v>
+      </c>
+      <c r="O20">
+        <v>0.001354142723904981</v>
+      </c>
+      <c r="P20">
+        <v>0.001354142723904981</v>
+      </c>
+      <c r="Q20">
+        <v>0.00298138978311111</v>
+      </c>
+      <c r="R20">
+        <v>0.026832508048</v>
+      </c>
+      <c r="S20">
+        <v>8.372535723564879E-07</v>
+      </c>
+      <c r="T20">
+        <v>8.372535723564878E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.03402066666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.102062</v>
+      </c>
+      <c r="I21">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="J21">
+        <v>0.0006182904930006751</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.117853</v>
+      </c>
+      <c r="N21">
+        <v>9.353559000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.04817748631616847</v>
+      </c>
+      <c r="P21">
+        <v>0.04817748631616846</v>
+      </c>
+      <c r="Q21">
+        <v>0.1060714376286667</v>
+      </c>
+      <c r="R21">
+        <v>0.9546429386580001</v>
+      </c>
+      <c r="S21">
+        <v>2.978768176595708E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.978768176595708E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4804453333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.441336</v>
+      </c>
+      <c r="I22">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="J22">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.828008</v>
+      </c>
+      <c r="N22">
+        <v>8.484024</v>
+      </c>
+      <c r="O22">
+        <v>0.04369876216807366</v>
+      </c>
+      <c r="P22">
+        <v>0.04369876216807365</v>
+      </c>
+      <c r="Q22">
+        <v>1.358703246229333</v>
+      </c>
+      <c r="R22">
+        <v>12.228329216064</v>
+      </c>
+      <c r="S22">
+        <v>0.0003815600204716576</v>
+      </c>
+      <c r="T22">
+        <v>0.0003815600204716575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4804453333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.441336</v>
+      </c>
+      <c r="I23">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="J23">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>58.57646433333333</v>
+      </c>
+      <c r="N23">
+        <v>175.729393</v>
+      </c>
+      <c r="O23">
+        <v>0.9051314506709254</v>
+      </c>
+      <c r="P23">
+        <v>0.9051314506709253</v>
+      </c>
+      <c r="Q23">
+        <v>28.14278893211644</v>
+      </c>
+      <c r="R23">
+        <v>253.285100389048</v>
+      </c>
+      <c r="S23">
+        <v>0.007903243884099333</v>
+      </c>
+      <c r="T23">
+        <v>0.007903243884099331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4804453333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.441336</v>
+      </c>
+      <c r="I24">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="J24">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.106015</v>
+      </c>
+      <c r="N24">
+        <v>0.318045</v>
+      </c>
+      <c r="O24">
+        <v>0.001638158120927639</v>
+      </c>
+      <c r="P24">
+        <v>0.001638158120927638</v>
+      </c>
+      <c r="Q24">
+        <v>0.05093441201333334</v>
+      </c>
+      <c r="R24">
+        <v>0.45840970812</v>
+      </c>
+      <c r="S24">
+        <v>1.430373802701505E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.430373802701505E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4804453333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.441336</v>
+      </c>
+      <c r="I25">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="J25">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.08763466666666665</v>
+      </c>
+      <c r="N25">
+        <v>0.262904</v>
+      </c>
+      <c r="O25">
+        <v>0.001354142723904981</v>
+      </c>
+      <c r="P25">
+        <v>0.001354142723904981</v>
+      </c>
+      <c r="Q25">
+        <v>0.04210366663822222</v>
+      </c>
+      <c r="R25">
+        <v>0.378932999744</v>
+      </c>
+      <c r="S25">
+        <v>1.182382977960466E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.182382977960466E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4804453333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.441336</v>
+      </c>
+      <c r="I26">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="J26">
+        <v>0.008731597911265907</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.117853</v>
+      </c>
+      <c r="N26">
+        <v>9.353559000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.04817748631616847</v>
+      </c>
+      <c r="P26">
+        <v>0.04817748631616846</v>
+      </c>
+      <c r="Q26">
+        <v>1.497957923869333</v>
+      </c>
+      <c r="R26">
+        <v>13.481621314824</v>
+      </c>
+      <c r="S26">
+        <v>0.0004206664388882985</v>
+      </c>
+      <c r="T26">
+        <v>0.0004206664388882984</v>
       </c>
     </row>
   </sheetData>
